--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,32 +457,292 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>OXO-5FI661A Augusta</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC132 Augusta</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC600 Augusta</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC601 Augusta</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>OXO-5FIC602 Augusta</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC603 Augusta</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC606A Augusta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC606C Augusta</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC607 Augusta</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC609A Augusta</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC609B Augusta</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC611A Augusta</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC611B Augusta</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC612A Augusta</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>OXO-5FIC612B Augusta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC618A Augusta</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC618B Augusta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC618C Augusta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC618D Augusta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC622A Augusta</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC622B Augusta</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>OXO-5FIC622C Augusta</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC636A Augusta</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FIC636B Augusta</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>OXO-5FIC636C Augusta</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5FQI691B Augusta</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI633B Augusta</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI650F Augusta</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI651E Augusta</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI651F Augusta</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI652E Augusta</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI652F Augusta</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI653E Augusta</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI653F Augusta</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI654E Augusta</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI654F Augusta</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI655F Augusta</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI656F Augusta</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI657E Augusta</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI657F Augusta</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI658E Augusta</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5LI658F Augusta</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5PIC605A Augusta</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5RIC606_Y Augusta</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC002 Augusta</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC601 Augusta</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>OXO-5TIC602 Augusta</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>OXO-5TIC603 Augusta</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC604 Augusta</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC605 Augusta</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC606 Augusta</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC607 Augusta</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-5TIC659 Augusta</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-_5FI658A Augusta</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-_5FI659A Augusta</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-_5FI660A Augusta</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>OXO-_5FI662A Augusta</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Anomaly</t>
         </is>
       </c>
     </row>
@@ -490,494 +750,1106 @@
       <c r="A2" s="2" t="n">
         <v>43770.04166666666</v>
       </c>
-      <c r="B2" t="n">
-        <v>9384.63299153646</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5950.17383720461</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5068.014147949219</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.000414752960205</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3095.785913085938</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2713.375058513043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>132.0638961791992</v>
-      </c>
-      <c r="I2" t="n">
-        <v>133.9945876177621</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>43770.08333333334</v>
       </c>
-      <c r="B3" t="n">
-        <v>9233.277262369793</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6379.102249786633</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5069.603649902344</v>
-      </c>
-      <c r="E3" t="n">
-        <v>8.999083002408346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3201.065022786459</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2710.63129272461</v>
-      </c>
-      <c r="H3" t="n">
-        <v>132.0354824547007</v>
-      </c>
-      <c r="I3" t="n">
-        <v>134.0081062316895</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>43770.125</v>
       </c>
-      <c r="B4" t="n">
-        <v>9223.139013671876</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6337.343084161932</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5061.608939178719</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8.997775546709697</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3200.161602783204</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2710.523927815756</v>
-      </c>
-      <c r="H4" t="n">
-        <v>132.0288963317871</v>
-      </c>
-      <c r="I4" t="n">
-        <v>134.0083116263398</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>43770.16666666666</v>
       </c>
-      <c r="B5" t="n">
-        <v>9104.168619791666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6183.590301513672</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5004.132636062237</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8.998596660296123</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3194.761232503256</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2719.354256184897</v>
-      </c>
-      <c r="H5" t="n">
-        <v>132.0703329291227</v>
-      </c>
-      <c r="I5" t="n">
-        <v>134.0020980834962</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>43771.95833333334</v>
       </c>
-      <c r="B6" t="n">
-        <v>7975.456363932291</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4328.971368408204</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4937.812573242188</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.650842966127001</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2110.623171997071</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1537.311913045248</v>
-      </c>
-      <c r="H6" t="n">
-        <v>135.55402247111</v>
-      </c>
-      <c r="I6" t="n">
-        <v>136.1321196753132</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>43772</v>
       </c>
-      <c r="B7" t="n">
-        <v>8258.268131510416</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4904.587259928386</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4937.3146705948</v>
-      </c>
-      <c r="E7" t="n">
-        <v>8.648755582173665</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2467.356449381511</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1785.101551310222</v>
-      </c>
-      <c r="H7" t="n">
-        <v>134.06691269047</v>
-      </c>
-      <c r="I7" t="n">
-        <v>136.1702276919069</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>43772.04166666666</v>
       </c>
-      <c r="B8" t="n">
-        <v>8481.239677492253</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5041.807727050781</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4938.178881835937</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.647890710830689</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2503.68212076823</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1871.693931070964</v>
-      </c>
-      <c r="H8" t="n">
-        <v>135.1884716033936</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136.1122201966845</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
         <v>43772.08333333334</v>
       </c>
-      <c r="B9" t="n">
-        <v>8898.724934895834</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5056.61567993164</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4938.75634765625</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8.648796240488688</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2446.369386800131</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2053.965887451172</v>
-      </c>
-      <c r="H9" t="n">
-        <v>135.4231412251792</v>
-      </c>
-      <c r="I9" t="n">
-        <v>136.1329421997071</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
         <v>43772.125</v>
       </c>
-      <c r="B10" t="n">
-        <v>8961.214146205357</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5009.594675272453</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4937.3146705948</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.648107200109658</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2350.276317949056</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2065.673483455884</v>
-      </c>
-      <c r="H10" t="n">
-        <v>135.3992780156498</v>
-      </c>
-      <c r="I10" t="n">
-        <v>136.1346825351235</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
         <v>43772.16666666666</v>
       </c>
-      <c r="B11" t="n">
-        <v>8963.184733072916</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5187.44690445829</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4938.30224609375</v>
-      </c>
-      <c r="E11" t="n">
-        <v>8.650172312397602</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2333.665065511069</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2071.112520345053</v>
-      </c>
-      <c r="H11" t="n">
-        <v>135.1721454967152</v>
-      </c>
-      <c r="I11" t="n">
-        <v>136.1440934110281</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
         <v>43772.20833333334</v>
       </c>
-      <c r="B12" t="n">
-        <v>8968.128515625</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5239.23681233724</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4938.191964285715</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.649681973457337</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2300.028887939454</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2070.785231526693</v>
-      </c>
-      <c r="H12" t="n">
-        <v>135.010665124204</v>
-      </c>
-      <c r="I12" t="n">
-        <v>136.1479153673189</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
         <v>43772.25</v>
       </c>
-      <c r="B13" t="n">
-        <v>8971.091667742769</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5293.792221966912</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4936.98837890625</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.657301775614421</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2300.114669421488</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2065.219242316633</v>
-      </c>
-      <c r="H13" t="n">
-        <v>134.8844699071459</v>
-      </c>
-      <c r="I13" t="n">
-        <v>136.149383544922</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr"/>
+      <c r="AX13" t="inlineStr"/>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="inlineStr"/>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="inlineStr"/>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
         <v>43772.29166666666</v>
       </c>
-      <c r="B14" t="n">
-        <v>8965.220239257813</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5616.239645209194</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4938.02978515625</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.661611398061117</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2228.390696207683</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2058.172786458334</v>
-      </c>
-      <c r="H14" t="n">
-        <v>134.8773165149849</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136.1496124267579</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
         <v>43772.33333333334</v>
       </c>
-      <c r="B15" t="n">
-        <v>8963.406933593749</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4819.035675048828</v>
-      </c>
-      <c r="D15" t="n">
-        <v>4937.914924172794</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.642122077941895</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2178.496803792318</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2059.333307346377</v>
-      </c>
-      <c r="H15" t="n">
-        <v>134.8263205536141</v>
-      </c>
-      <c r="I15" t="n">
-        <v>136.1401778292066</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
         <v>43772.375</v>
       </c>
-      <c r="B16" t="n">
-        <v>8958.25586751302</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5256.360811121323</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4937.904150390625</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8.651306287447612</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2249.965725938814</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2056.693387858073</v>
-      </c>
-      <c r="H16" t="n">
-        <v>134.7977973937988</v>
-      </c>
-      <c r="I16" t="n">
-        <v>136.1428376526392</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
         <v>43772.41666666666</v>
       </c>
-      <c r="B17" t="n">
-        <v>8957.520417542017</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5111.833120803202</v>
-      </c>
-      <c r="D17" t="n">
-        <v>4938.0751953125</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.657897814114888</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2249.89174601237</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2053.407336425781</v>
-      </c>
-      <c r="H17" t="n">
-        <v>134.6825281778972</v>
-      </c>
-      <c r="I17" t="n">
-        <v>136.1508712768555</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
+      <c r="BH17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
         <v>43772.45833333334</v>
       </c>
-      <c r="B18" t="n">
-        <v>8965.130657605889</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5275.183653246455</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4937.545537355567</v>
-      </c>
-      <c r="E18" t="n">
-        <v>8.648174293835957</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2330.963421277765</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2057.155013155347</v>
-      </c>
-      <c r="H18" t="n">
-        <v>134.516899814125</v>
-      </c>
-      <c r="I18" t="n">
-        <v>136.1446230549458</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="inlineStr"/>
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
+++ b/Data_Cleansing/OXO-5FI696 Augusta_anomaly_report/xlsx/OXO-5FI696 Augusta_toptagssuboptimal.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -434,6 +440,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>OXO-5FI696 Augusta</t>
@@ -476,8 +487,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+      <c r="A2" s="2" t="n">
+        <v>43770.04166666666</v>
       </c>
       <c r="B2" t="n">
         <v>9384.63299153646</v>
@@ -505,8 +516,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+      <c r="A3" s="2" t="n">
+        <v>43770.08333333334</v>
       </c>
       <c r="B3" t="n">
         <v>9233.277262369793</v>
@@ -534,8 +545,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
+      <c r="A4" s="2" t="n">
+        <v>43770.125</v>
       </c>
       <c r="B4" t="n">
         <v>9223.139013671876</v>
@@ -563,8 +574,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+      <c r="A5" s="2" t="n">
+        <v>43770.16666666666</v>
       </c>
       <c r="B5" t="n">
         <v>9104.168619791666</v>
@@ -592,8 +603,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>47</v>
+      <c r="A6" s="2" t="n">
+        <v>43771.95833333334</v>
       </c>
       <c r="B6" t="n">
         <v>7975.456363932291</v>
@@ -621,8 +632,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>48</v>
+      <c r="A7" s="2" t="n">
+        <v>43772</v>
       </c>
       <c r="B7" t="n">
         <v>8258.268131510416</v>
@@ -650,8 +661,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>49</v>
+      <c r="A8" s="2" t="n">
+        <v>43772.04166666666</v>
       </c>
       <c r="B8" t="n">
         <v>8481.239677492253</v>
@@ -679,8 +690,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>50</v>
+      <c r="A9" s="2" t="n">
+        <v>43772.08333333334</v>
       </c>
       <c r="B9" t="n">
         <v>8898.724934895834</v>
@@ -708,8 +719,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>51</v>
+      <c r="A10" s="2" t="n">
+        <v>43772.125</v>
       </c>
       <c r="B10" t="n">
         <v>8961.214146205357</v>
@@ -737,8 +748,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>52</v>
+      <c r="A11" s="2" t="n">
+        <v>43772.16666666666</v>
       </c>
       <c r="B11" t="n">
         <v>8963.184733072916</v>
@@ -766,8 +777,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>53</v>
+      <c r="A12" s="2" t="n">
+        <v>43772.20833333334</v>
       </c>
       <c r="B12" t="n">
         <v>8968.128515625</v>
@@ -795,8 +806,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>54</v>
+      <c r="A13" s="2" t="n">
+        <v>43772.25</v>
       </c>
       <c r="B13" t="n">
         <v>8971.091667742769</v>
@@ -824,8 +835,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>55</v>
+      <c r="A14" s="2" t="n">
+        <v>43772.29166666666</v>
       </c>
       <c r="B14" t="n">
         <v>8965.220239257813</v>
@@ -853,8 +864,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>56</v>
+      <c r="A15" s="2" t="n">
+        <v>43772.33333333334</v>
       </c>
       <c r="B15" t="n">
         <v>8963.406933593749</v>
@@ -882,8 +893,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>57</v>
+      <c r="A16" s="2" t="n">
+        <v>43772.375</v>
       </c>
       <c r="B16" t="n">
         <v>8958.25586751302</v>
@@ -911,8 +922,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>58</v>
+      <c r="A17" s="2" t="n">
+        <v>43772.41666666666</v>
       </c>
       <c r="B17" t="n">
         <v>8957.520417542017</v>
@@ -940,8 +951,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>59</v>
+      <c r="A18" s="2" t="n">
+        <v>43772.45833333334</v>
       </c>
       <c r="B18" t="n">
         <v>8965.130657605889</v>
